--- a/data_processed/20250731/BTCUSDVOLSURFACE_REGULARIZED_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDVOLSURFACE_REGULARIZED_20250731.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -34696,7 +34696,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35652,7 +35652,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37543,7 +37543,7 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37934,7 +37934,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38129,7 +38129,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38299,7 +38299,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -41803,7 +41803,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250731/BTCUSDVOLSURFACE_REGULARIZED_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDVOLSURFACE_REGULARIZED_20250731.xlsx
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18244,7 +18244,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -33761,7 +33761,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34331,7 +34331,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34389,7 +34389,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34592,7 +34592,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35233,7 +35233,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35316,7 +35316,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35461,7 +35461,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35490,7 +35490,7 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35652,7 +35652,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36351,7 +36351,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36409,7 +36409,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36438,7 +36438,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36467,7 +36467,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37170,7 +37170,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37199,7 +37199,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37228,7 +37228,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37344,7 +37344,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37373,7 +37373,7 @@
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37514,7 +37514,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38100,7 +38100,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38158,7 +38158,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38299,7 +38299,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -41430,7 +41430,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41459,7 +41459,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41488,7 +41488,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41517,7 +41517,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41546,7 +41546,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41575,7 +41575,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41774,7 +41774,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41803,7 +41803,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -45105,7 +45105,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45667,7 +45667,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45696,7 +45696,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45725,7 +45725,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45754,7 +45754,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45920,7 +45920,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
